--- a/public/cohort/fileExcel/xlsxUIT/PWS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/PWS PTA en onderwijsprogramma.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t xml:space="preserve">Profielwerkstuk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zie opmerkingen </t>
   </si>
   <si>
     <t xml:space="preserve">Beoordeling is gebaseerd op een schriftelijk verslag en een mondelinge presentatie. Cijfer van het profielwerkstuk is onderdeel van het combinatiecijfer. Het combinatiecijfer bestaat uit de vakken Maatschappijleer, CKV en het profielwerkstuk. 
@@ -1373,7 +1370,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1495,7 +1492,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2171,7 +2168,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2453,7 +2450,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2575,7 +2572,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3071,14 +3068,14 @@
       <c r="J30" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="43" t="s">
-        <v>68</v>
-      </c>
+      <c r="K30" s="43"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N30" s="44"/>
+      <c r="N30" s="44">
+        <v>1</v>
+      </c>
       <c r="O30" s="44" t="s">
         <v>11</v>
       </c>
@@ -3245,7 +3242,7 @@
     <row r="38" spans="1:17" customHeight="1" ht="72">
       <c r="F38" s="31"/>
       <c r="G38" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="39"/>
@@ -3259,7 +3256,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3742,7 +3739,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4416,7 +4413,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4817,7 +4814,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5497,7 +5494,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -5898,7 +5895,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6572,7 +6569,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6976,7 +6973,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7650,7 +7647,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8054,7 +8051,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8280,14 +8277,14 @@
       <c r="J18" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="43" t="s">
-        <v>68</v>
-      </c>
+      <c r="K18" s="43"/>
       <c r="L18" s="37"/>
       <c r="M18" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="44"/>
+      <c r="N18" s="44">
+        <v>1</v>
+      </c>
       <c r="O18" s="44" t="s">
         <v>11</v>
       </c>
@@ -8454,7 +8451,7 @@
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="F26" s="31"/>
       <c r="G26" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
@@ -8736,7 +8733,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -9018,7 +9015,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -9140,7 +9137,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9816,7 +9813,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -10098,7 +10095,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10220,7 +10217,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809409722</v>
+        <v>44341.376793981</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10896,7 +10893,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/PWS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/PWS PTA en onderwijsprogramma.xlsx
@@ -2180,7 +2180,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6666,7 +6666,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7744,7 +7744,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382905093</v>
+        <v>44342.630104167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/PWS PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/PWS PTA en onderwijsprogramma.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -917,6 +917,9 @@
     <t xml:space="preserve">Het schoolexamen mavo omvat het maken van een profielwerkstuk. Het onderwerp moet betrekking hebben op het profiel. Het profielwerkstuk wordt in duo’s of alleen gemaakt. Het onderwerp wordt door de leerlingen zelf aangeleverd. Alle leerlingen hebben een begeleider. </t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -2128,7 +2131,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2482,7 +2485,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3502,14 +3505,14 @@
     </row>
     <row r="30" spans="1:32" customHeight="1" ht="72">
       <c r="D30" s="2">
-        <v>1114</v>
+        <v>1125</v>
       </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -3524,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -4018,7 +4021,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -4374,7 +4377,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4728,7 +4731,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5755,7 +5758,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -5770,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -6264,7 +6267,7 @@
     </row>
     <row r="38" spans="1:32" customHeight="1" ht="72">
       <c r="G38" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
@@ -7149,7 +7152,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7514,7 +7517,7 @@
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2">
-        <v>1112</v>
+        <v>1123</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
@@ -7536,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -9391,7 +9394,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9778,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -11279,7 +11282,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -11633,7 +11636,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -13515,7 +13518,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13869,7 +13872,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14234,14 +14237,14 @@
     </row>
     <row r="18" spans="1:32" customHeight="1" ht="72">
       <c r="D18" s="2">
-        <v>1113</v>
+        <v>1124</v>
       </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -14256,7 +14259,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14780,7 +14783,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15759,7 +15762,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16113,7 +16116,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16485,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -16500,7 +16503,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -17024,7 +17027,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -18003,7 +18006,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -18357,7 +18360,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451354167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -20241,7 +20244,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -20595,7 +20598,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541134259</v>
+        <v>44378.451365741</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
